--- a/trabalho2/ex3/minutiae_mascaras.xlsx
+++ b/trabalho2/ex3/minutiae_mascaras.xlsx
@@ -41,7 +41,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,6 +51,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5001"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +207,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P16"/>
+  <dimension ref="B2:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -533,7 +566,7 @@
     <col min="1" max="16384" width="2.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -546,8 +579,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
+      <c r="G2" s="2">
+        <v>1</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -570,8 +603,26 @@
       <c r="P2" s="3">
         <v>0</v>
       </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="27">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6">
         <v>0</v>
       </c>
@@ -608,8 +659,26 @@
       <c r="P3" s="9">
         <v>1</v>
       </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10">
         <v>1</v>
       </c>
@@ -619,11 +688,11 @@
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1</v>
       </c>
       <c r="H4" s="12">
         <v>1</v>
@@ -646,8 +715,26 @@
       <c r="P4" s="14">
         <v>0</v>
       </c>
+      <c r="R4" s="13">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="20">
+        <v>1</v>
+      </c>
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4" s="11">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -657,8 +744,8 @@
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
+      <c r="F6" s="15">
+        <v>1</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -684,8 +771,26 @@
       <c r="P6" s="3">
         <v>0</v>
       </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>0</v>
       </c>
@@ -695,14 +800,14 @@
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
+      <c r="F7" s="17">
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
+      <c r="H7" s="9">
+        <v>1</v>
       </c>
       <c r="J7" s="17">
         <v>1</v>
@@ -722,8 +827,26 @@
       <c r="P7" s="8">
         <v>0</v>
       </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>1</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="26">
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <v>0</v>
       </c>
@@ -760,8 +883,26 @@
       <c r="P8" s="14">
         <v>0</v>
       </c>
+      <c r="R8" s="21">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -774,11 +915,11 @@
       <c r="F10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
       </c>
       <c r="J10" s="15">
         <v>1</v>
@@ -798,8 +939,26 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
+      <c r="R10" s="22">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="17">
         <v>1</v>
       </c>
@@ -836,8 +995,26 @@
       <c r="P11" s="9">
         <v>1</v>
       </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>1</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>0</v>
       </c>
@@ -850,8 +1027,8 @@
       <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="11">
-        <v>0</v>
+      <c r="G12" s="18">
+        <v>1</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -874,8 +1051,26 @@
       <c r="P12" s="14">
         <v>0</v>
       </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="25">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15">
         <v>1</v>
       </c>
@@ -912,8 +1107,26 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="23">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>0</v>
       </c>
@@ -923,14 +1136,14 @@
       <c r="D15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
+      <c r="F15" s="17">
+        <v>1</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
+      <c r="H15" s="9">
+        <v>1</v>
       </c>
       <c r="J15" s="17">
         <v>1</v>
@@ -950,8 +1163,26 @@
       <c r="P15" s="8">
         <v>0</v>
       </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>1</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0</v>
+      </c>
+      <c r="W15" s="19">
+        <v>1</v>
+      </c>
+      <c r="X15" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
         <v>1</v>
       </c>
@@ -967,8 +1198,8 @@
       <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="14">
-        <v>0</v>
+      <c r="H16" s="12">
+        <v>1</v>
       </c>
       <c r="J16" s="13">
         <v>0</v>
@@ -986,6 +1217,24 @@
         <v>1</v>
       </c>
       <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
         <v>0</v>
       </c>
     </row>
